--- a/Parameters/ProjectsSubTypes.xlsx
+++ b/Parameters/ProjectsSubTypes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\JNB\MLE\DES.LM.Reports\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\DES.LM.Reports\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5505ABCA-43AF-4AE2-A875-2024E877CBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2E00C8-0448-4D69-8133-D307967FD4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>А0172. Адм.время НУП. Отпуска</t>
   </si>
@@ -136,6 +136,30 @@
   </si>
   <si>
     <t>ProjectSubTypePart</t>
+  </si>
+  <si>
+    <t>А0210-НПУ. Адм. управление персоналом</t>
+  </si>
+  <si>
+    <t>А0264-Адм. время НСКК. Больничный</t>
+  </si>
+  <si>
+    <t>А0298 -Адм. Время. НРБ. Больничный</t>
+  </si>
+  <si>
+    <t>А0425 - Отгулы за ранее отработанное время (переработки)</t>
+  </si>
+  <si>
+    <t>А0426 - Отгулы за ранее отработанное время (переработки)</t>
+  </si>
+  <si>
+    <t>А0288-Адм. время. НИС. Управленческие</t>
+  </si>
+  <si>
+    <t>А0483 - Рабочее время в пути, связанное с командировками и т.п. (происходящие в рабочее время)</t>
+  </si>
+  <si>
+    <t>КомВПути</t>
   </si>
 </sst>
 </file>
@@ -191,10 +215,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -476,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F53492B-E9B6-44FD-A10D-37455B40CAC6}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,28 +606,28 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
@@ -606,7 +635,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
@@ -614,7 +643,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>12</v>
@@ -622,7 +651,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
@@ -630,7 +659,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
@@ -638,7 +667,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
@@ -646,51 +675,51 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>22</v>
@@ -698,43 +727,163 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>29</v>
       </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Parameters/ProjectsSubTypes.xlsx
+++ b/Parameters/ProjectsSubTypes.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\DES.LM.Reports\Parameters\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2E00C8-0448-4D69-8133-D307967FD4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADDA915-8483-4157-814D-F1FBD2E46DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Parameters/ProjectsSubTypes.xlsx
+++ b/Parameters/ProjectsSubTypes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADDA915-8483-4157-814D-F1FBD2E46DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F441C410-4D93-4C8A-A118-B65D2000970A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
   <si>
     <t>А0172. Адм.время НУП. Отпуска</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>КомВПути</t>
+  </si>
+  <si>
+    <t>А0536 - ДИСУ. Обучение (повышение квалификации) с отрывом от производства для нужд производства.</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,8 +800,12 @@
       <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">

--- a/Parameters/ProjectsSubTypes.xlsx
+++ b/Parameters/ProjectsSubTypes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F441C410-4D93-4C8A-A118-B65D2000970A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80CA5CB-0FB5-4A61-9405-0DB4A806A771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="110">
   <si>
     <t>А0172. Адм.время НУП. Отпуска</t>
   </si>
@@ -158,6 +158,207 @@
   </si>
   <si>
     <t>А0536 - ДИСУ. Обучение (повышение квалификации) с отрывом от производства для нужд производства.</t>
+  </si>
+  <si>
+    <t>В0329- Документооборот (отправка корреспонденции)</t>
+  </si>
+  <si>
+    <t>В0332-ДРЭО. Делопроизводство</t>
+  </si>
+  <si>
+    <t>В0305-ФГ. Взаимодействие с кадровыми службами и бухгалтерией</t>
+  </si>
+  <si>
+    <t>В0265-НИСУ. ФГ Делопроизводство</t>
+  </si>
+  <si>
+    <t>В0220-НКиПС. ФГ Делопроизводство</t>
+  </si>
+  <si>
+    <t>В0267-НПУ. ФГ Делопроизводство</t>
+  </si>
+  <si>
+    <t>В0273-НПИС.ФГ Делопроизводство</t>
+  </si>
+  <si>
+    <t>В0522 - НПИС.ФГ.Профессионального развития персонала</t>
+  </si>
+  <si>
+    <t>В0519 - НПИС.ФГ.Делопроизводство</t>
+  </si>
+  <si>
+    <t>В0520 - НПИС.ФГ.ПЭГНПИС.ФГ.ПЭГ</t>
+  </si>
+  <si>
+    <t>В0261-НР. ФГ Делопроизводство</t>
+  </si>
+  <si>
+    <t>В0263-НСКК. ФГ Делопроизводство</t>
+  </si>
+  <si>
+    <t>ДП</t>
+  </si>
+  <si>
+    <t>ФГ</t>
+  </si>
+  <si>
+    <t>В0213-Пресейл НИСУ</t>
+  </si>
+  <si>
+    <t>Прс</t>
+  </si>
+  <si>
+    <t>В0294-НРБ. Управление процессами проработки коммерческих инициатив и подготовки ТКП</t>
+  </si>
+  <si>
+    <t>В0317-НРБ. Организация взаимодействия с Заказчиками</t>
+  </si>
+  <si>
+    <t>В0292-НУП. Процесс управления сервисами</t>
+  </si>
+  <si>
+    <t>В0530 - ООД. ФГ документооборота (отправка корреспонденции)</t>
+  </si>
+  <si>
+    <t>В0217-НКиПС. Пресейл ЦСПБиЭ</t>
+  </si>
+  <si>
+    <t>В0277-НКиПС. Пресейл ЦПР</t>
+  </si>
+  <si>
+    <t>В0221-НКиПС. Пресейл ЦКИС</t>
+  </si>
+  <si>
+    <t>В0278-НКиПС. Пресейл ОСУДиНСИ</t>
+  </si>
+  <si>
+    <t>В0381-Поддержка и сопровождение системы ресурсного планирования и учета трудозатрат</t>
+  </si>
+  <si>
+    <t>В0330-Мероприятия по продвижению собственных продуктов и услуг -DES.MES</t>
+  </si>
+  <si>
+    <t>В0291-НУП. Информационно-технологическое обслуживание</t>
+  </si>
+  <si>
+    <t>В0219-Пресейл НСКК</t>
+  </si>
+  <si>
+    <t>В0377-ФГ.Разработка ПП и ДИ</t>
+  </si>
+  <si>
+    <t>В0315- НРБ. Процесс экономического планирования и контроля ДРЭО</t>
+  </si>
+  <si>
+    <t>В0501 - ЛИС+АМ РИТЭК</t>
+  </si>
+  <si>
+    <t>АМ</t>
+  </si>
+  <si>
+    <t>В0502 - ЛИС+АМ ЮГРАНП</t>
+  </si>
+  <si>
+    <t>В0511 - ЛИС+АМ МЦПБ</t>
+  </si>
+  <si>
+    <t>В0296 -НРБ. ФГ Делопроизводство</t>
+  </si>
+  <si>
+    <t>В0512 - ЛИС+АМ ТУРСУНТ</t>
+  </si>
+  <si>
+    <t>В0513 - ЛИС+АМ ЭнИнж</t>
+  </si>
+  <si>
+    <t>В0514 - ЛИС+АМ Л-ЭПУ</t>
+  </si>
+  <si>
+    <t>В0515 - ЛИС+АМ Л-ЧМ</t>
+  </si>
+  <si>
+    <t>В0320-НУП. Процесс ресурсного планирования</t>
+  </si>
+  <si>
+    <t>В0533 - ООД. ФГ Служба Заказчика</t>
+  </si>
+  <si>
+    <t>В0534 - ООД. ФГ ведения договоров</t>
+  </si>
+  <si>
+    <t>В0529 - ООД. ФГ Делопроизводство централизованное (кадровое)</t>
+  </si>
+  <si>
+    <t>В0531 - ООД. ФГ административно-хозяйственного обеспечения</t>
+  </si>
+  <si>
+    <t>В0532 - ООД. ФГ закупок</t>
+  </si>
+  <si>
+    <t>В0535 - ООД. ФГ ИТО</t>
+  </si>
+  <si>
+    <t>В0528 - ООД. ФГ Делопроизводство централизованное (договорное)</t>
+  </si>
+  <si>
+    <t>В0538 - СУП. Процессы формирования и контроля исполнения производственных программ</t>
+  </si>
+  <si>
+    <t>В0539 - СУП. Процессы, обеспечивающие функционирование систем охраны труда и пожарной безопасности.</t>
+  </si>
+  <si>
+    <t>В0527 - ООД. ФГ Делопроизводство централизованное (служебное)</t>
+  </si>
+  <si>
+    <t>В0413 - СРБ. Информационная поддержка коммерческой деятельности</t>
+  </si>
+  <si>
+    <t>В-0365 НОД. Процесс обеспечения деятельности</t>
+  </si>
+  <si>
+    <t>В0293-НУП. Процесс управления портфелем проекта</t>
+  </si>
+  <si>
+    <t>В0300-НУП. Процессы ведения договоров</t>
+  </si>
+  <si>
+    <t>В0542 - ООД. ФГ по проведению инвентаризации</t>
+  </si>
+  <si>
+    <t>В0189- СУП. ФГ Служба Заказчика</t>
+  </si>
+  <si>
+    <t>В0215-НКиПС. Пресейл ЦПСГиД</t>
+  </si>
+  <si>
+    <t>В0191-НУП. ФГ Делопроизводство</t>
+  </si>
+  <si>
+    <t>В0486 - Каталог работ и услуг Л1</t>
+  </si>
+  <si>
+    <t>В0487 - Количественные показатели работ и услуг (метрики) Л1</t>
+  </si>
+  <si>
+    <t>В0335 - Автоматизация процесса обработки документов в КИС ЭХД</t>
+  </si>
+  <si>
+    <t>В0391 -Пресейл НПУ</t>
+  </si>
+  <si>
+    <t>В0507 - ЛИС+АМ НВН</t>
+  </si>
+  <si>
+    <t>В0503 - ЛИС+АМ Л-Инж-Пермь</t>
+  </si>
+  <si>
+    <t>В0508 - ЛИС+АМ Л-Пермь</t>
+  </si>
+  <si>
+    <t>В0510 - ЛИС+АМ УралОйл</t>
+  </si>
+  <si>
+    <t>В0333-НОД. ФГ Делопроизводство</t>
   </si>
 </sst>
 </file>
@@ -503,10 +704,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F53492B-E9B6-44FD-A10D-37455B40CAC6}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,60 +1034,596 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
+      <c r="A46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
+      <c r="A47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+      <c r="A48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
+      <c r="A49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
+      <c r="A50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
+      <c r="A51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+      <c r="A52" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
+      <c r="A53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
+      <c r="A54" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
+      <c r="A56" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Parameters/ProjectsSubTypes.xlsx
+++ b/Parameters/ProjectsSubTypes.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80CA5CB-0FB5-4A61-9405-0DB4A806A771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CB40F1-FCEE-44D4-8022-808E1EFBC480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="117">
   <si>
     <t>А0172. Адм.время НУП. Отпуска</t>
   </si>
@@ -359,6 +359,27 @@
   </si>
   <si>
     <t>В0333-НОД. ФГ Делопроизводство</t>
+  </si>
+  <si>
+    <t>А0525 - Административное время ООД. Больничный</t>
+  </si>
+  <si>
+    <t>А0579 - Адм. управление персоналом Службы сопровождения производственных систем</t>
+  </si>
+  <si>
+    <t>А0602 - Адм. Время. RCBI. Отпуск</t>
+  </si>
+  <si>
+    <t>А0603 - Адм. Время. RCBI. Больничный</t>
+  </si>
+  <si>
+    <t>А0212-Адм. время ДИСУ. Отпуск</t>
+  </si>
+  <si>
+    <t>А0537 - ДКиПС. Обучение (повышение квалификации) с отрывом от производства для нужд производства.</t>
+  </si>
+  <si>
+    <t>А0629 - Корпоративное обучение не связанное с конкретным ФН, Департаментом или Направлением (для нужд Общества)</t>
   </si>
 </sst>
 </file>
@@ -704,7 +725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F53492B-E9B6-44FD-A10D-37455B40CAC6}">
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -822,36 +843,32 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
@@ -859,7 +876,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
@@ -867,7 +884,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
@@ -875,7 +892,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>12</v>
@@ -883,7 +900,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>12</v>
@@ -891,7 +908,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>12</v>
@@ -899,7 +916,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>12</v>
@@ -907,59 +924,55 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>22</v>
@@ -967,7 +980,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>22</v>
@@ -975,287 +988,279 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+      <c r="A59" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>56</v>
@@ -1263,7 +1268,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>56</v>
@@ -1271,79 +1276,79 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>56</v>
@@ -1351,7 +1356,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>56</v>
@@ -1359,75 +1364,79 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
+      <c r="A94" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>56</v>
@@ -1435,7 +1444,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>56</v>
@@ -1443,15 +1452,15 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>56</v>
@@ -1459,7 +1468,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>56</v>
@@ -1467,7 +1476,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>56</v>
@@ -1475,23 +1484,23 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>56</v>
@@ -1499,131 +1508,223 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B123" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-    </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
